--- a/P4_CreateReportDB/supplier_avg_units.xlsx
+++ b/P4_CreateReportDB/supplier_avg_units.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9834E1-0B4D-402B-9992-DFBC1B33C973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr hidePivotFieldList="1" showPivotChartFilter="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="supplier_avg_units" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -161,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,24 +757,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -795,15 +789,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -820,24 +814,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[supplier_avg_units.xlsx]Sheet1!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -880,49 +863,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -931,21 +872,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -966,49 +907,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1017,21 +916,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1052,49 +951,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1103,21 +960,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1138,49 +995,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1189,21 +1004,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1224,49 +1039,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1275,21 +1048,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1310,49 +1083,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1362,6 +1093,7 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
@@ -1369,6 +1101,7 @@
               </a:gs>
               <a:gs pos="50000">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
@@ -1376,6 +1109,7 @@
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1396,54 +1130,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1452,21 +1139,24 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1487,54 +1177,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1546,7 +1189,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1599,7 +1241,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$34</c:f>
@@ -1728,7 +1369,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0B6-4AB3-AE31-735345281E99}"/>
             </c:ext>
@@ -1786,7 +1427,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$34</c:f>
@@ -1915,7 +1555,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0B6-4AB3-AE31-735345281E99}"/>
             </c:ext>
@@ -1973,7 +1613,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$34</c:f>
@@ -2096,7 +1735,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D0B6-4AB3-AE31-735345281E99}"/>
             </c:ext>
@@ -2154,7 +1793,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$34</c:f>
@@ -2271,7 +1909,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D0B6-4AB3-AE31-735345281E99}"/>
             </c:ext>
@@ -2329,7 +1967,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$34</c:f>
@@ -2449,7 +2086,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D0B6-4AB3-AE31-735345281E99}"/>
             </c:ext>
@@ -2507,7 +2144,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$34</c:f>
@@ -2627,7 +2263,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D0B6-4AB3-AE31-735345281E99}"/>
             </c:ext>
@@ -2688,7 +2324,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$34</c:f>
@@ -2808,7 +2443,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D0B6-4AB3-AE31-735345281E99}"/>
             </c:ext>
@@ -2869,7 +2504,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$34</c:f>
@@ -2998,35 +2632,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-D0B6-4AB3-AE31-735345281E99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="558145592"/>
-        <c:axId val="558149856"/>
+        <c:axId val="222439680"/>
+        <c:axId val="222449664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="558145592"/>
+        <c:axId val="222439680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3060,19 +2684,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558149856"/>
+        <c:crossAx val="222449664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558149856"/>
+        <c:axId val="222449664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3090,7 +2712,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3118,7 +2739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558145592"/>
+        <c:crossAx val="222439680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3132,7 +2753,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3162,14 +2783,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -3209,10 +2829,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3228,6 +2848,1257 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:pivotSource>
+    <c:name>[supplier_avg_units.xlsx]Sheet1!数据透视表1</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>供应商每种产品种类的平均预订量是多少</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bigfoot Breweries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cooperativa de Quesos 'Las Cabras'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escargots Nouveaux</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exotic Liquids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grandma Kelly's Homestead</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heli S锟斤拷waren GmbH &amp; Co. KG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karkki Oy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leka Trading</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lyngbysild</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ma Maison</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mayumi's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>New England Seafood Cannery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>New Orleans Cajun Delights</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nord-Ost-Fisch Handelsgesellschaft mbH</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PB Kn锟絚kebr锟絛 AB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Refrescos Americanas LTDA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Svensk Sj锟絝锟絛a AB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tokyo Traders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Zaanse Snoepfabriek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Condiments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bigfoot Breweries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cooperativa de Quesos 'Las Cabras'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escargots Nouveaux</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exotic Liquids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grandma Kelly's Homestead</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heli S锟斤拷waren GmbH &amp; Co. KG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karkki Oy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leka Trading</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lyngbysild</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ma Maison</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mayumi's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>New England Seafood Cannery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>New Orleans Cajun Delights</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nord-Ost-Fisch Handelsgesellschaft mbH</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PB Kn锟絚kebr锟絛 AB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Refrescos Americanas LTDA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Svensk Sj锟絝锟絛a AB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tokyo Traders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Zaanse Snoepfabriek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bigfoot Breweries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cooperativa de Quesos 'Las Cabras'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escargots Nouveaux</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exotic Liquids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grandma Kelly's Homestead</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heli S锟斤拷waren GmbH &amp; Co. KG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karkki Oy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leka Trading</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lyngbysild</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ma Maison</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mayumi's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>New England Seafood Cannery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>New Orleans Cajun Delights</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nord-Ost-Fisch Handelsgesellschaft mbH</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PB Kn锟絚kebr锟絛 AB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Refrescos Americanas LTDA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Svensk Sj锟絝锟絛a AB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tokyo Traders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Zaanse Snoepfabriek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bigfoot Breweries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cooperativa de Quesos 'Las Cabras'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escargots Nouveaux</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exotic Liquids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grandma Kelly's Homestead</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heli S锟斤拷waren GmbH &amp; Co. KG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karkki Oy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leka Trading</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lyngbysild</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ma Maison</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mayumi's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>New England Seafood Cannery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>New Orleans Cajun Delights</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nord-Ost-Fisch Handelsgesellschaft mbH</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PB Kn锟絚kebr锟絛 AB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Refrescos Americanas LTDA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Svensk Sj锟絝锟絛a AB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tokyo Traders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Zaanse Snoepfabriek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bigfoot Breweries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cooperativa de Quesos 'Las Cabras'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escargots Nouveaux</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exotic Liquids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grandma Kelly's Homestead</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heli S锟斤拷waren GmbH &amp; Co. KG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karkki Oy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leka Trading</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lyngbysild</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ma Maison</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mayumi's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>New England Seafood Cannery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>New Orleans Cajun Delights</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nord-Ost-Fisch Handelsgesellschaft mbH</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PB Kn锟絚kebr锟絛 AB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Refrescos Americanas LTDA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Svensk Sj锟絝锟絛a AB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tokyo Traders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Zaanse Snoepfabriek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meat/Poultry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bigfoot Breweries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cooperativa de Quesos 'Las Cabras'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escargots Nouveaux</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exotic Liquids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grandma Kelly's Homestead</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heli S锟斤拷waren GmbH &amp; Co. KG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karkki Oy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leka Trading</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lyngbysild</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ma Maison</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mayumi's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>New England Seafood Cannery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>New Orleans Cajun Delights</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nord-Ost-Fisch Handelsgesellschaft mbH</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PB Kn锟絚kebr锟絛 AB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Refrescos Americanas LTDA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Svensk Sj锟絝锟絛a AB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tokyo Traders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Zaanse Snoepfabriek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Produce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bigfoot Breweries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cooperativa de Quesos 'Las Cabras'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escargots Nouveaux</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exotic Liquids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grandma Kelly's Homestead</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heli S锟斤拷waren GmbH &amp; Co. KG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karkki Oy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leka Trading</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lyngbysild</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ma Maison</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mayumi's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>New England Seafood Cannery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>New Orleans Cajun Delights</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nord-Ost-Fisch Handelsgesellschaft mbH</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PB Kn锟絚kebr锟絛 AB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Refrescos Americanas LTDA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Svensk Sj锟絝锟絛a AB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tokyo Traders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Zaanse Snoepfabriek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seafood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Aux joyeux eccl锟絪iastiques</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bigfoot Breweries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cooperativa de Quesos 'Las Cabras'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escargots Nouveaux</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exotic Liquids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Formaggi Fortini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>For锟絫s d'锟絩ables</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gai p锟絫urage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G'day, Mate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grandma Kelly's Homestead</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heli S锟斤拷waren GmbH &amp; Co. KG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karkki Oy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leka Trading</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lyngbysild</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ma Maison</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mayumi's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>New England Seafood Cannery</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>New Orleans Cajun Delights</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nord-Ost-Fisch Handelsgesellschaft mbH</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Norske Meierier</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Pasta Buttini s.r.l.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pavlova, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PB Kn锟絚kebr锟絛 AB</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Plutzer Lebensmittelgro锟絤锟絩kte AG</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Refrescos Americanas LTDA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Specialty Biscuits, Ltd.</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Svensk Sj锟絝锟絛a AB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Tokyo Traders</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Zaanse Snoepfabriek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="92266496"/>
+        <c:axId val="92268032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92266496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92268032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92268032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92266496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3771,23 +4642,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1731B1-3E70-4CF6-B4D4-582066883746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE1731B1-3E70-4CF6-B4D4-582066883746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3805,11 +4676,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ADMIN" refreshedDate="43454.735709606481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ADMIN" refreshedDate="43454.735709606481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C1048576" sheet="supplier_avg_units"/>
   </cacheSource>
@@ -4129,7 +5030,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:J34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4313,7 +5214,7 @@
   <dataFields count="1">
     <dataField name="求和项:avg_units_order" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
+  <chartFormats count="41">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -4418,6 +5319,390 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -4478,7 +5763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4530,7 +5815,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4724,21 +6009,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
@@ -4751,7 +6036,7 @@
     <col min="9" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -4759,7 +6044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -4791,7 +6076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -4809,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -4827,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -4845,7 +6130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -4863,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -4883,7 +6168,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4901,7 +6186,7 @@
         <v>36.6666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -4921,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -4939,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -4961,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -4981,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -4999,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -5019,7 +6304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5041,7 +6326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -5059,7 +6344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -5077,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -5099,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -5117,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -5135,7 +6420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -5153,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -5171,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -5189,7 +6474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -5215,7 +6500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -5233,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -5259,7 +6544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -5277,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -5295,7 +6580,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -5313,7 +6598,7 @@
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -5335,7 +6620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -5353,7 +6638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -5393,16 +6678,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5413,7 +6698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5424,7 +6709,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5435,7 +6720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5446,7 +6731,7 @@
         <v>36.6666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5457,7 +6742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5468,7 +6753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5479,7 +6764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5490,7 +6775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5501,7 +6786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5512,7 +6797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5523,7 +6808,7 @@
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5534,7 +6819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5545,7 +6830,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5556,7 +6841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -5567,7 +6852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5578,7 +6863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -5589,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5600,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5611,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5622,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5633,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5644,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5655,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5666,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -5677,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5688,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -5699,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5710,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -5721,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -5732,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5743,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -5754,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -5765,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5776,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5787,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5798,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5809,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5820,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5831,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -5842,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -5853,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -5864,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -5875,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -5886,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -5897,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -5908,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -5919,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -5930,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -5941,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>16</v>
       </c>

--- a/P4_CreateReportDB/supplier_avg_units.xlsx
+++ b/P4_CreateReportDB/supplier_avg_units.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ACD8868-77DA-4F78-B46F-0225F225A294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9834E1-0B4D-402B-9992-DFBC1B33C973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -842,137 +842,703 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -996,13 +1562,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1154,13 +1749,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1312,13 +1936,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1464,13 +2117,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1610,13 +2292,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1759,13 +2470,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1908,15 +2648,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2059,15 +2829,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2230,11 +3030,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2248,9 +3048,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2279,9 +3078,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2307,9 +3106,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2349,9 +3147,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2375,17 +3172,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2464,35 +3272,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2500,26 +3306,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2528,9 +3342,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2549,14 +3362,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2565,20 +3370,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2587,13 +3392,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2605,10 +3410,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2617,16 +3422,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2644,21 +3450,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2677,14 +3480,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2696,14 +3498,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2717,9 +3519,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2733,12 +3534,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2750,9 +3545,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2767,14 +3562,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2786,14 +3580,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2805,14 +3599,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2821,14 +3614,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2836,7 +3628,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2849,11 +3641,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2861,14 +3663,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2880,12 +3682,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2901,7 +3710,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2910,9 +3718,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2928,14 +3735,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2944,9 +3750,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2958,12 +3763,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3010,7 +3809,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ADMIN" refreshedDate="43454.735709606481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ADMIN" refreshedDate="43454.735709606481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C1048576" sheet="supplier_avg_units"/>
   </cacheSource>
@@ -3330,7 +4129,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:J34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3932,7 +4731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4594,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
